--- a/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>310358</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信灵活配置混合</t>
+          <t>申万菱信新经济混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.10</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>310358</t>
+          <t>000270</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信新经济混合</t>
+          <t>建信灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.73</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>86.25</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.54</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001972</t>
+          <t>010403</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+          <t>华商景气优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.30</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>630011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信灵活配置混合</t>
+          <t>华商主题精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>38.99</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000932</t>
+          <t>008961</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - A</t>
+          <t>华商科技创新混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.69</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -706,25 +786,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000933</t>
+          <t>000932</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - C</t>
+          <t>前海开源睿远稳健增利混合 - A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>21.69</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.85</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010403</t>
+          <t>020033</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商景气优选混合</t>
+          <t>国泰民安增利债券A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -762,25 +862,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>020033</t>
+          <t>020034</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰民安增利债券A</t>
+          <t>国泰民安增利债券C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>20.62</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.01</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>020034</t>
+          <t>002289</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰民安增利债券C</t>
+          <t>华商改革创新股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -818,26 +938,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>630011</t>
+          <t>000270</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华商主题精选混合</t>
+          <t>建信灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -846,26 +976,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002289</t>
+          <t>000933</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商改革创新股票</t>
+          <t>前海开源睿远稳健增利混合 - C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008961</t>
+          <t>001972</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华商科技创新混合</t>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85.75</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0969</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.76</v>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1680,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3423</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2065,7 +2066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,17 +2077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2096,14 +2117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.75</v>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4327</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2112,14 +2155,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.14</v>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3691</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2128,14 +2193,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.76</v>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2144,14 +2231,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5</v>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2160,13 +2269,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2730,7 +2731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2741,17 +2742,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2761,14 +2782,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.06</v>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8344</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2777,14 +2820,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.75</v>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2793,14 +2858,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.14</v>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5576</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2809,14 +2896,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.76</v>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4091</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2825,14 +2934,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2841,13 +2972,943 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>2.06</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>3.75</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.76</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -600,6 +617,1694 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0888</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9116</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8601</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7727</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5733</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4240</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3834</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014119</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014120</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1643,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2307,7 +4012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2857,7 +4562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2989,7 +4694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3311,7 +5016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3747,7 +5452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300680-隆盛科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>8.83</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>2.06</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>3.75</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.76</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -616,7 +633,1407 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7973</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6757</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4955</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015575</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015574</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2304,7 +3721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3348,7 +4765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4012,7 +5429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4562,7 +5979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4694,7 +6111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5016,7 +6433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5450,174 +6867,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>310358</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>申万菱信新经济混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3597</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000270</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>28.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001972</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>